--- a/sprint_planning/TeamDMVWReport.xlsx
+++ b/sprint_planning/TeamDMVWReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mruna\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mruna\Desktop\SSW_555\GEDCOM_Project\sprint_planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D29913-729F-4D8F-BF48-5A21A03F6177}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA701C0-954E-4113-8082-8A785CED4D2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="30" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="219">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -713,6 +713,24 @@
   </si>
   <si>
     <t>Test each others code</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>GEDCOMparser.py</t>
+  </si>
+  <si>
+    <t>us33_list_orphans</t>
+  </si>
+  <si>
+    <t>us38_upcoming_birthdays</t>
+  </si>
+  <si>
+    <t>us33_test.py</t>
+  </si>
+  <si>
+    <t>us38_test.py</t>
   </si>
 </sst>
 </file>
@@ -2055,7 +2073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -2309,6 +2327,9 @@
       <c r="D8" t="s">
         <v>189</v>
       </c>
+      <c r="E8" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -2322,6 +2343,9 @@
       </c>
       <c r="D9" t="s">
         <v>189</v>
+      </c>
+      <c r="E9" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2671,8 +2695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection sqref="A1:I44"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2920,7 +2944,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2934,10 +2958,10 @@
     <col min="7" max="7" width="7.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.08984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.36328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.90625" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1796875" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22" style="17" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.1796875" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.08984375" style="17" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.453125" style="17" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.1796875" style="17" bestFit="1" customWidth="1"/>
   </cols>
@@ -3126,18 +3150,32 @@
         <v>189</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="E8">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="F8">
         <v>90</v>
       </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
+      <c r="G8">
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <v>60</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="L8" s="18">
+        <v>172</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>217</v>
+      </c>
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
     </row>
@@ -3152,13 +3190,31 @@
         <v>189</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E9">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="F9">
-        <v>60</v>
+        <v>90</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>90</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="L9" s="17">
+        <v>189</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -3342,8 +3398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>

--- a/sprint_planning/TeamDMVWReport.xlsx
+++ b/sprint_planning/TeamDMVWReport.xlsx
@@ -5,17 +5,17 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mruna\Desktop\SSW_555\GEDCOM_Project\sprint_planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mruna\Desktop\GEDCOM_Project\sprint_planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA701C0-954E-4113-8082-8A785CED4D2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EA14BE-B126-471E-8DDF-6F1EA26071C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="30" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Team" sheetId="1" r:id="rId1"/>
-    <sheet name="Backlog" sheetId="2" r:id="rId2"/>
-    <sheet name="Burndown README" sheetId="13" r:id="rId3"/>
+    <sheet name="Burndown README" sheetId="13" r:id="rId1"/>
+    <sheet name="Team" sheetId="1" r:id="rId2"/>
+    <sheet name="Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="Burndown" sheetId="7" r:id="rId4"/>
     <sheet name="Sprint1" sheetId="3" r:id="rId5"/>
     <sheet name="Sprint2" sheetId="4" r:id="rId6"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="235">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -181,9 +181,6 @@
     <t>GitHub Repository:</t>
   </si>
   <si>
-    <t>Leaving leftover pizza on the counter</t>
-  </si>
-  <si>
     <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
   </si>
   <si>
@@ -541,9 +538,6 @@
     <t>US42</t>
   </si>
   <si>
-    <t>Coding</t>
-  </si>
-  <si>
     <t>Dates before current date</t>
   </si>
   <si>
@@ -727,10 +721,64 @@
     <t>us38_upcoming_birthdays</t>
   </si>
   <si>
-    <t>us33_test.py</t>
-  </si>
-  <si>
-    <t>us38_test.py</t>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>us14_multiple_births_fewer_than_6</t>
+  </si>
+  <si>
+    <t>GEDCOMparser_tests.py</t>
+  </si>
+  <si>
+    <t>test_us14_multiple_births_fewer_than_6</t>
+  </si>
+  <si>
+    <t>test_us33_list_orphans</t>
+  </si>
+  <si>
+    <t>test_us38_upcoming_birthdays</t>
+  </si>
+  <si>
+    <t>us15_fewer_than_15_siblings</t>
+  </si>
+  <si>
+    <t>us30_list_living_married</t>
+  </si>
+  <si>
+    <t>us31_list_living_single</t>
+  </si>
+  <si>
+    <t>test_us15_fewer_than_15_siblings</t>
+  </si>
+  <si>
+    <t>test_us16_male_lastname</t>
+  </si>
+  <si>
+    <t>us16_male_lastname</t>
+  </si>
+  <si>
+    <t>us22_unique_ids</t>
+  </si>
+  <si>
+    <t>test_us22_unique_ids</t>
+  </si>
+  <si>
+    <t>test_us30_list_living_married</t>
+  </si>
+  <si>
+    <t>test_us31_list_living_single</t>
+  </si>
+  <si>
+    <t>No marriage to children</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>Avoid last minute changes to the parser</t>
   </si>
 </sst>
 </file>
@@ -1168,9 +1216,12 @@
             <c:strRef>
               <c:f>Burndown!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>09/17/2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1-10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1183,6 +1234,9 @@
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2070,6 +2124,200 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.81640625" style="7"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="13">
+        <v>41065</v>
+      </c>
+      <c r="C15" s="14">
+        <v>24</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="13">
+        <v>41078</v>
+      </c>
+      <c r="C16" s="14">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <f>C15-C16</f>
+        <v>6</v>
+      </c>
+      <c r="E16" s="14">
+        <v>250</v>
+      </c>
+      <c r="F16" s="14">
+        <v>120</v>
+      </c>
+      <c r="G16" s="9">
+        <f>(E16-E15)/F16*60</f>
+        <v>125.00000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="13">
+        <v>41092</v>
+      </c>
+      <c r="C17" s="14">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <f>C16-C17</f>
+        <v>6</v>
+      </c>
+      <c r="E17" s="14">
+        <v>480</v>
+      </c>
+      <c r="F17" s="15">
+        <v>135</v>
+      </c>
+      <c r="G17" s="9">
+        <f>(E17-E16)/F17*60</f>
+        <v>102.22222222222223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="13">
+        <v>41106</v>
+      </c>
+      <c r="C18" s="14">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <f>C17-C18</f>
+        <v>6</v>
+      </c>
+      <c r="E18" s="14">
+        <v>740</v>
+      </c>
+      <c r="F18" s="15">
+        <v>160</v>
+      </c>
+      <c r="G18" s="9">
+        <f>(E18-E17)/F18*60</f>
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="13">
+        <v>41120</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f>C18-C19</f>
+        <v>6</v>
+      </c>
+      <c r="E19" s="14">
+        <v>1100</v>
+      </c>
+      <c r="F19" s="15">
+        <v>145</v>
+      </c>
+      <c r="G19" s="9">
+        <f>(E19-E18)/F19*60</f>
+        <v>148.9655172413793</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -2105,70 +2353,70 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" t="s">
         <v>189</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>191</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="E3" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" t="s">
         <v>184</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>186</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="E4" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" t="s">
         <v>194</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>196</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="E5" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>200</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="E6" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2176,7 +2424,7 @@
         <v>34</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2196,12 +2444,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2210,7 +2458,7 @@
     <col min="2" max="2" width="8.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2235,13 +2483,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>192</v>
+      </c>
+      <c r="E2" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2249,13 +2500,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>194</v>
+        <v>192</v>
+      </c>
+      <c r="E3" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2263,13 +2517,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D4" t="s">
-        <v>184</v>
+        <v>182</v>
+      </c>
+      <c r="E4" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2277,13 +2534,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>184</v>
+        <v>182</v>
+      </c>
+      <c r="E5" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2291,13 +2551,16 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="E6" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2305,13 +2568,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="E7" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2319,16 +2585,16 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2336,16 +2602,16 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2353,13 +2619,16 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>194</v>
+        <v>192</v>
+      </c>
+      <c r="E10" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2367,13 +2636,16 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>194</v>
+        <v>192</v>
+      </c>
+      <c r="E11" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2381,13 +2653,16 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>184</v>
+        <v>182</v>
+      </c>
+      <c r="E12" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2395,13 +2670,16 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>184</v>
+        <v>182</v>
+      </c>
+      <c r="E13" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2409,13 +2687,16 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="E14" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2423,13 +2704,16 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D15" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="E15" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -2437,237 +2721,243 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+      <c r="E16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+      <c r="E17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D29" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C31" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D31" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -2675,13 +2965,13 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2691,206 +2981,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.81640625" style="7"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>162</v>
-      </c>
-      <c r="B15" s="13">
-        <v>41065</v>
-      </c>
-      <c r="C15" s="14">
-        <v>24</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>163</v>
-      </c>
-      <c r="B16" s="13">
-        <v>41078</v>
-      </c>
-      <c r="C16" s="14">
-        <v>18</v>
-      </c>
-      <c r="D16">
-        <f>C15-C16</f>
-        <v>6</v>
-      </c>
-      <c r="E16" s="14">
-        <v>250</v>
-      </c>
-      <c r="F16" s="14">
-        <v>120</v>
-      </c>
-      <c r="G16" s="9">
-        <f>(E16-E15)/F16*60</f>
-        <v>125.00000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B17" s="13">
-        <v>41092</v>
-      </c>
-      <c r="C17" s="14">
-        <v>12</v>
-      </c>
-      <c r="D17">
-        <f>C16-C17</f>
-        <v>6</v>
-      </c>
-      <c r="E17" s="14">
-        <v>480</v>
-      </c>
-      <c r="F17" s="15">
-        <v>135</v>
-      </c>
-      <c r="G17" s="9">
-        <f>(E17-E16)/F17*60</f>
-        <v>102.22222222222223</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B18" s="13">
-        <v>41106</v>
-      </c>
-      <c r="C18" s="14">
-        <v>6</v>
-      </c>
-      <c r="D18">
-        <f>C17-C18</f>
-        <v>6</v>
-      </c>
-      <c r="E18" s="14">
-        <v>740</v>
-      </c>
-      <c r="F18" s="15">
-        <v>160</v>
-      </c>
-      <c r="G18" s="9">
-        <f>(E18-E17)/F18*60</f>
-        <v>97.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B19" s="13">
-        <v>41120</v>
-      </c>
-      <c r="C19" s="14">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <f>C18-C19</f>
-        <v>6</v>
-      </c>
-      <c r="E19" s="14">
-        <v>1100</v>
-      </c>
-      <c r="F19" s="15">
-        <v>145</v>
-      </c>
-      <c r="G19" s="9">
-        <f>(E19-E18)/F19*60</f>
-        <v>148.9655172413793</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2925,10 +3021,34 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B2">
         <v>32</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>42013</v>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>547</v>
+      </c>
+      <c r="E3">
+        <v>120</v>
+      </c>
+      <c r="F3" s="9">
+        <f>(D3-D2)/E3*60</f>
+        <v>273.5</v>
       </c>
     </row>
   </sheetData>
@@ -2943,8 +3063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2959,10 +3079,10 @@
     <col min="8" max="8" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.08984375" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.1796875" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.90625" style="17" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.08984375" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.08984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34" style="17" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.1796875" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2995,36 +3115,36 @@
         <v>17</v>
       </c>
       <c r="J1" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="N1" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>181</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -3032,25 +3152,46 @@
       <c r="F2">
         <v>120</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="G2">
+        <v>26</v>
+      </c>
+      <c r="H2">
+        <v>60</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="L2" s="18">
+        <v>375</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="O2" s="18">
+        <v>46</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -3058,19 +3199,46 @@
       <c r="F3">
         <v>120</v>
       </c>
+      <c r="G3">
+        <v>24</v>
+      </c>
+      <c r="H3">
+        <v>60</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="L3" s="17">
+        <v>350</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="O3" s="17">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -3078,19 +3246,46 @@
       <c r="F4">
         <v>150</v>
       </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>125</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="L4" s="17">
+        <v>218</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="O4" s="17">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E5">
         <v>70</v>
@@ -3098,19 +3293,46 @@
       <c r="F5">
         <v>120</v>
       </c>
+      <c r="G5">
+        <v>25</v>
+      </c>
+      <c r="H5">
+        <v>60</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="L5" s="17">
+        <v>239</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="O5" s="17">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="E6">
         <v>70</v>
@@ -3118,19 +3340,46 @@
       <c r="F6">
         <v>120</v>
       </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>60</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="L6" s="17">
+        <v>308</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="O6" s="17">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E7">
         <v>70</v>
@@ -3138,83 +3387,126 @@
       <c r="F7">
         <v>120</v>
       </c>
+      <c r="G7">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="L7" s="17">
+        <v>329</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="O7" s="17">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E8">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F8">
         <v>90</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H8">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>216</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L8" s="18">
-        <v>172</v>
+        <v>250</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
+        <v>218</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="O8" s="18">
+        <v>52</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E9">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F9">
         <v>90</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H9">
-        <v>90</v>
+        <v>30</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>216</v>
       </c>
       <c r="J9" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="K9" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="K9" s="17" t="s">
-        <v>216</v>
-      </c>
       <c r="L9" s="17">
-        <v>189</v>
+        <v>284</v>
       </c>
       <c r="M9" s="17" t="s">
         <v>218</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="O9" s="17">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -3233,12 +3525,12 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
@@ -3248,7 +3540,7 @@
     </row>
     <row r="21" spans="2:2" ht="25.2" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>35</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -3260,13 +3552,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="26.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
@@ -3295,6 +3590,166 @@
       </c>
       <c r="I1" s="10" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E6">
+        <v>40</v>
+      </c>
+      <c r="F6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E9">
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3410,475 +3865,475 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>135</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>136</v>
-      </c>
-      <c r="B25" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/sprint_planning/TeamDMVWReport.xlsx
+++ b/sprint_planning/TeamDMVWReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mruna\Desktop\GEDCOM_Project\sprint_planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EA14BE-B126-471E-8DDF-6F1EA26071C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2F60CE-EA21-45F8-935A-D43EEB8B0394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="30" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="30" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown README" sheetId="13" r:id="rId1"/>
@@ -2449,7 +2449,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2730,7 +2730,7 @@
         <v>187</v>
       </c>
       <c r="E16" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -2747,7 +2747,7 @@
         <v>187</v>
       </c>
       <c r="E17" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -3063,7 +3063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -3554,8 +3554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -3723,7 +3723,7 @@
         <v>187</v>
       </c>
       <c r="D8" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="E8">
         <v>40</v>
@@ -3743,7 +3743,7 @@
         <v>187</v>
       </c>
       <c r="D9" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="E9">
         <v>40</v>
@@ -3853,8 +3853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>

--- a/sprint_planning/TeamDMVWReport.xlsx
+++ b/sprint_planning/TeamDMVWReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mruna\Desktop\GEDCOM_Project\sprint_planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2F60CE-EA21-45F8-935A-D43EEB8B0394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086D9B9F-054B-46FA-A7BA-26EAE747D34E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="30" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="30" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown README" sheetId="13" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="254">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -694,9 +694,6 @@
     <t>Less than 150 years old</t>
   </si>
   <si>
-    <t>Yet to start</t>
-  </si>
-  <si>
     <t>In Progress</t>
   </si>
   <si>
@@ -709,9 +706,6 @@
     <t>Test each others code</t>
   </si>
   <si>
-    <t>Testing</t>
-  </si>
-  <si>
     <t>GEDCOMparser.py</t>
   </si>
   <si>
@@ -775,10 +769,73 @@
     <t>No marriage to children</t>
   </si>
   <si>
-    <t>In progress</t>
-  </si>
-  <si>
     <t>Avoid last minute changes to the parser</t>
+  </si>
+  <si>
+    <t>Test Lines</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>gedcom_parser.py</t>
+  </si>
+  <si>
+    <t>us21_correct_gender_for_role</t>
+  </si>
+  <si>
+    <t>sprint2_test.py</t>
+  </si>
+  <si>
+    <t>test_us21_correct_gender</t>
+  </si>
+  <si>
+    <t>Correct Gender for role</t>
+  </si>
+  <si>
+    <t>us17_no_marriage_to_children</t>
+  </si>
+  <si>
+    <t>us27_include_individual_ages</t>
+  </si>
+  <si>
+    <t>us06_divorce_before_death</t>
+  </si>
+  <si>
+    <t>us35_list_recent_births</t>
+  </si>
+  <si>
+    <t>us36_list_recent_deaths</t>
+  </si>
+  <si>
+    <t>us08_birth_before_marriage_of_parents</t>
+  </si>
+  <si>
+    <t>us09_birth_before_death_of_parents</t>
+  </si>
+  <si>
+    <t>test_us17_no_child_marry</t>
+  </si>
+  <si>
+    <t>test_us27_include_individual_ages</t>
+  </si>
+  <si>
+    <t>test_us06_divorce_before_death</t>
+  </si>
+  <si>
+    <t>test_us35_list_recent_births</t>
+  </si>
+  <si>
+    <t>test_us26_list_recent_deaths</t>
+  </si>
+  <si>
+    <t>test_us08_birth_before_marriage_ofParents</t>
+  </si>
+  <si>
+    <t>test_us09_birth_before_death_ofParents</t>
+  </si>
+  <si>
+    <t>Avoid unneccessary waste in code. Use class properties and methods already defined.</t>
   </si>
 </sst>
 </file>
@@ -1216,12 +1273,15 @@
             <c:strRef>
               <c:f>Burndown!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>09/17/2019</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1-10</c:v>
+                  <c:v>10-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10-15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1237,6 +1297,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2127,7 +2190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -2449,7 +2512,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2492,7 +2555,7 @@
         <v>192</v>
       </c>
       <c r="E2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2509,7 +2572,7 @@
         <v>192</v>
       </c>
       <c r="E3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2526,7 +2589,7 @@
         <v>182</v>
       </c>
       <c r="E4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2543,7 +2606,7 @@
         <v>182</v>
       </c>
       <c r="E5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2560,7 +2623,7 @@
         <v>203</v>
       </c>
       <c r="E6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2577,7 +2640,7 @@
         <v>203</v>
       </c>
       <c r="E7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2594,7 +2657,7 @@
         <v>187</v>
       </c>
       <c r="E8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2611,7 +2674,7 @@
         <v>187</v>
       </c>
       <c r="E9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2628,7 +2691,7 @@
         <v>192</v>
       </c>
       <c r="E10" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2645,7 +2708,7 @@
         <v>192</v>
       </c>
       <c r="E11" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2662,7 +2725,7 @@
         <v>182</v>
       </c>
       <c r="E12" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2679,7 +2742,7 @@
         <v>182</v>
       </c>
       <c r="E13" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2690,13 +2753,13 @@
         <v>121</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
         <v>203</v>
       </c>
       <c r="E14" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2713,7 +2776,7 @@
         <v>203</v>
       </c>
       <c r="E15" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -2730,7 +2793,7 @@
         <v>187</v>
       </c>
       <c r="E16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -2747,7 +2810,7 @@
         <v>187</v>
       </c>
       <c r="E17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -2763,6 +2826,9 @@
       <c r="D18" t="s">
         <v>192</v>
       </c>
+      <c r="E18" s="22" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -2777,6 +2843,9 @@
       <c r="D19" t="s">
         <v>192</v>
       </c>
+      <c r="E19" s="22" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -2791,6 +2860,9 @@
       <c r="D20" t="s">
         <v>182</v>
       </c>
+      <c r="E20" s="22" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -2805,6 +2877,9 @@
       <c r="D21" t="s">
         <v>182</v>
       </c>
+      <c r="E21" s="22" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
@@ -2819,6 +2894,9 @@
       <c r="D22" t="s">
         <v>203</v>
       </c>
+      <c r="E22" s="22" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -2827,11 +2905,14 @@
       <c r="B23" t="s">
         <v>132</v>
       </c>
-      <c r="C23" t="s">
-        <v>86</v>
+      <c r="C23" s="22" t="s">
+        <v>76</v>
       </c>
       <c r="D23" t="s">
         <v>203</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -2847,6 +2928,9 @@
       <c r="D24" t="s">
         <v>187</v>
       </c>
+      <c r="E24" s="22" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
@@ -2860,6 +2944,9 @@
       </c>
       <c r="D25" t="s">
         <v>187</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -2983,10 +3070,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -3021,7 +3108,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B2">
         <v>32</v>
@@ -3032,7 +3119,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>42013</v>
+        <v>42277</v>
       </c>
       <c r="B3">
         <v>24</v>
@@ -3049,6 +3136,27 @@
       <c r="F3" s="9">
         <f>(D3-D2)/E3*60</f>
         <v>273.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>42291</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>836</v>
+      </c>
+      <c r="E4">
+        <v>90</v>
+      </c>
+      <c r="F4" s="9">
+        <f>(D4-D3)/E4*60</f>
+        <v>192.66666666666669</v>
       </c>
     </row>
   </sheetData>
@@ -3064,7 +3172,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B14" sqref="B14:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -3144,7 +3252,7 @@
         <v>192</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -3159,22 +3267,22 @@
         <v>60</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L2" s="18">
         <v>375</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O2" s="18">
         <v>46</v>
@@ -3191,7 +3299,7 @@
         <v>192</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -3206,22 +3314,22 @@
         <v>60</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L3" s="17">
         <v>350</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O3" s="17">
         <v>37</v>
@@ -3238,7 +3346,7 @@
         <v>182</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -3253,22 +3361,22 @@
         <v>125</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L4" s="17">
         <v>218</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O4" s="17">
         <v>9</v>
@@ -3285,7 +3393,7 @@
         <v>182</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E5">
         <v>70</v>
@@ -3300,22 +3408,22 @@
         <v>60</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L5" s="17">
         <v>239</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O5" s="17">
         <v>17</v>
@@ -3332,7 +3440,7 @@
         <v>203</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E6">
         <v>70</v>
@@ -3347,22 +3455,22 @@
         <v>60</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L6" s="17">
         <v>308</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O6" s="17">
         <v>25</v>
@@ -3379,7 +3487,7 @@
         <v>203</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E7">
         <v>70</v>
@@ -3394,22 +3502,22 @@
         <v>30</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L7" s="17">
         <v>329</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O7" s="17">
         <v>31</v>
@@ -3426,7 +3534,7 @@
         <v>187</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E8">
         <v>45</v>
@@ -3441,22 +3549,22 @@
         <v>30</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L8" s="18">
         <v>250</v>
       </c>
       <c r="M8" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="N8" s="18" t="s">
         <v>218</v>
-      </c>
-      <c r="N8" s="18" t="s">
-        <v>220</v>
       </c>
       <c r="O8" s="18">
         <v>52</v>
@@ -3473,7 +3581,7 @@
         <v>187</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -3488,22 +3596,22 @@
         <v>30</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J9" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="K9" s="17" t="s">
         <v>212</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>214</v>
       </c>
       <c r="L9" s="17">
         <v>284</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O9" s="17">
         <v>60</v>
@@ -3525,12 +3633,12 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
@@ -3540,7 +3648,7 @@
     </row>
     <row r="21" spans="2:2" ht="25.2" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3552,18 +3660,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3591,19 +3704,37 @@
       <c r="I1" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>121</v>
       </c>
-      <c r="B2" t="s">
-        <v>76</v>
+      <c r="B2" s="22" t="s">
+        <v>238</v>
       </c>
       <c r="C2" t="s">
         <v>203</v>
       </c>
       <c r="D2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E2">
         <v>30</v>
@@ -3611,19 +3742,46 @@
       <c r="F2">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>19</v>
+      </c>
+      <c r="H2">
+        <v>40</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="L2" s="22">
+        <v>495</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="O2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C3" t="s">
         <v>203</v>
       </c>
       <c r="D3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E3">
         <v>30</v>
@@ -3631,8 +3789,35 @@
       <c r="F3">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>90</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="L3">
+        <v>515</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="O3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>138</v>
       </c>
@@ -3643,7 +3828,7 @@
         <v>192</v>
       </c>
       <c r="D4" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E4">
         <v>40</v>
@@ -3651,8 +3836,35 @@
       <c r="F4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>60</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="L4">
+        <v>535</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="O4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>117</v>
       </c>
@@ -3663,7 +3875,7 @@
         <v>192</v>
       </c>
       <c r="D5" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E5">
         <v>40</v>
@@ -3671,8 +3883,35 @@
       <c r="F5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>60</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="L5">
+        <v>552</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="O5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>146</v>
       </c>
@@ -3683,7 +3922,7 @@
         <v>182</v>
       </c>
       <c r="D6" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="E6">
         <v>40</v>
@@ -3691,8 +3930,35 @@
       <c r="F6">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>40</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="L6">
+        <v>452</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="O6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>147</v>
       </c>
@@ -3703,7 +3969,7 @@
         <v>182</v>
       </c>
       <c r="D7" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="E7">
         <v>40</v>
@@ -3711,8 +3977,35 @@
       <c r="F7">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>40</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="L7">
+        <v>473</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="O7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>119</v>
       </c>
@@ -3723,7 +4016,7 @@
         <v>187</v>
       </c>
       <c r="D8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E8">
         <v>40</v>
@@ -3731,8 +4024,35 @@
       <c r="F8">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>30</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="L8">
+        <v>397</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="O8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>120</v>
       </c>
@@ -3743,31 +4063,97 @@
         <v>187</v>
       </c>
       <c r="D9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E9">
         <v>40</v>
       </c>
       <c r="F9">
         <v>60</v>
+      </c>
+      <c r="G9">
+        <v>30</v>
+      </c>
+      <c r="H9">
+        <v>30</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="L9">
+        <v>421</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="O9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B16" s="21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="37.799999999999997" x14ac:dyDescent="0.2">
+      <c r="B20" s="21" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="24.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
@@ -3796,6 +4182,166 @@
       </c>
       <c r="I1" s="10" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/sprint_planning/TeamDMVWReport.xlsx
+++ b/sprint_planning/TeamDMVWReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mruna\Desktop\GEDCOM_Project\sprint_planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086D9B9F-054B-46FA-A7BA-26EAE747D34E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299B81B7-B352-40CE-BBD6-077E196DD006}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="30" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown README" sheetId="13" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="263">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -836,6 +836,33 @@
   </si>
   <si>
     <t>Avoid unneccessary waste in code. Use class properties and methods already defined.</t>
+  </si>
+  <si>
+    <t>us25_unique_first_names_inFamilies</t>
+  </si>
+  <si>
+    <t>sprint3_tests.py</t>
+  </si>
+  <si>
+    <t>test_us25_unique_first_names_inFamilies</t>
+  </si>
+  <si>
+    <t>us18_siblings_should_not_marry</t>
+  </si>
+  <si>
+    <t>test_us18_siblings_should_not_marry</t>
+  </si>
+  <si>
+    <t>Marriage Before Divorce</t>
+  </si>
+  <si>
+    <t>Marriage Before Death</t>
+  </si>
+  <si>
+    <t>First Cousins should not marry</t>
+  </si>
+  <si>
+    <t>Reject Illegitimate Dates</t>
   </si>
 </sst>
 </file>
@@ -2190,7 +2217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -2511,8 +2538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A19" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2929,7 +2956,7 @@
         <v>187</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -2946,7 +2973,7 @@
         <v>187</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -3662,8 +3689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="K1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -4144,18 +4171,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="L1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4183,8 +4215,26 @@
       <c r="I1" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>113</v>
       </c>
@@ -4204,7 +4254,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>114</v>
       </c>
@@ -4224,7 +4274,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>135</v>
       </c>
@@ -4244,7 +4294,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>150</v>
       </c>
@@ -4264,7 +4314,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>140</v>
       </c>
@@ -4284,7 +4334,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
         <v>132</v>
       </c>
@@ -4304,7 +4354,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>136</v>
       </c>
@@ -4315,7 +4365,7 @@
         <v>187</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E8">
         <v>40</v>
@@ -4323,8 +4373,35 @@
       <c r="F8">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>60</v>
+      </c>
+      <c r="I8" t="s">
+        <v>233</v>
+      </c>
+      <c r="J8" t="s">
+        <v>234</v>
+      </c>
+      <c r="K8" t="s">
+        <v>254</v>
+      </c>
+      <c r="L8">
+        <v>585</v>
+      </c>
+      <c r="M8" t="s">
+        <v>255</v>
+      </c>
+      <c r="N8" t="s">
+        <v>256</v>
+      </c>
+      <c r="O8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
         <v>129</v>
       </c>
@@ -4335,13 +4412,40 @@
         <v>187</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E9">
         <v>30</v>
       </c>
       <c r="F9">
         <v>60</v>
+      </c>
+      <c r="G9">
+        <v>12</v>
+      </c>
+      <c r="H9">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>233</v>
+      </c>
+      <c r="J9" t="s">
+        <v>234</v>
+      </c>
+      <c r="K9" t="s">
+        <v>257</v>
+      </c>
+      <c r="L9">
+        <v>604</v>
+      </c>
+      <c r="M9" t="s">
+        <v>255</v>
+      </c>
+      <c r="N9" t="s">
+        <v>258</v>
+      </c>
+      <c r="O9">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -4352,15 +4456,24 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4387,6 +4500,112 @@
       </c>
       <c r="I1" s="10" t="s">
         <v>17</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -4399,8 +4618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -4673,7 +4892,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>135</v>
       </c>

--- a/sprint_planning/TeamDMVWReport.xlsx
+++ b/sprint_planning/TeamDMVWReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mruna\Desktop\GEDCOM_Project\sprint_planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\54783\Desktop\GEDCOM\GEDCOM_Project\sprint_planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299B81B7-B352-40CE-BBD6-077E196DD006}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF035B4-8A07-472A-BD2C-8CE19EB2B824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown README" sheetId="13" r:id="rId1"/>
@@ -31,9 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -44,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="265">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -863,6 +861,14 @@
   </si>
   <si>
     <t>Reject Illegitimate Dates</t>
+  </si>
+  <si>
+    <t>US21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -870,10 +876,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m/d"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="m/d"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -918,6 +924,12 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1016,20 +1028,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1037,7 +1049,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1053,75 +1065,75 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="66">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1139,7 +1151,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1276,7 +1288,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1305,10 +1317,10 @@
                   <c:v>09/17/2019</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10-1</c:v>
+                  <c:v>10/1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10-15</c:v>
+                  <c:v>10/15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2221,47 +2233,47 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="7"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.84375" style="7"/>
+    <col min="2" max="2" width="9.4609375" customWidth="1"/>
+    <col min="3" max="3" width="15.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3828125" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>159</v>
       </c>
@@ -2284,7 +2296,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>160</v>
       </c>
@@ -2300,7 +2312,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>161</v>
       </c>
@@ -2325,7 +2337,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>162</v>
       </c>
@@ -2350,7 +2362,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>163</v>
       </c>
@@ -2375,7 +2387,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>164</v>
       </c>
@@ -2401,6 +2413,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2415,16 +2428,16 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.453125" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" customWidth="1"/>
-    <col min="4" max="4" width="20.453125" customWidth="1"/>
-    <col min="5" max="5" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.4609375" customWidth="1"/>
+    <col min="3" max="3" width="8.4609375" customWidth="1"/>
+    <col min="4" max="4" width="20.4609375" customWidth="1"/>
+    <col min="5" max="5" width="38.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2441,7 +2454,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>187</v>
       </c>
@@ -2458,7 +2471,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -2475,7 +2488,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>192</v>
       </c>
@@ -2492,7 +2505,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>201</v>
       </c>
@@ -2509,7 +2522,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
@@ -2542,16 +2555,16 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.07421875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.4609375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -2568,7 +2581,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2585,7 +2598,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2602,7 +2615,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2619,7 +2632,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2636,7 +2649,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2653,7 +2666,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2670,7 +2683,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2687,7 +2700,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2704,7 +2717,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2721,7 +2734,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2738,7 +2751,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2755,7 +2768,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2772,7 +2785,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2789,7 +2802,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2806,7 +2819,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2823,7 +2836,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2840,7 +2853,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2857,7 +2870,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2874,7 +2887,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2891,7 +2904,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
@@ -2908,7 +2921,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2925,7 +2938,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2942,7 +2955,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2959,7 +2972,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2976,7 +2989,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>4</v>
       </c>
@@ -2990,7 +3003,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
@@ -3004,7 +3017,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -3018,7 +3031,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
@@ -3032,7 +3045,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>4</v>
       </c>
@@ -3046,7 +3059,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -3060,7 +3073,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4</v>
       </c>
@@ -3074,7 +3087,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4</v>
       </c>
@@ -3103,17 +3116,17 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="2"/>
-    <col min="2" max="2" width="16.6328125" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.84375" style="2"/>
+    <col min="2" max="2" width="16.61328125" customWidth="1"/>
+    <col min="3" max="3" width="12.4609375" customWidth="1"/>
+    <col min="4" max="4" width="7.15234375" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3133,7 +3146,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>207</v>
       </c>
@@ -3144,7 +3157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>42277</v>
       </c>
@@ -3165,7 +3178,7 @@
         <v>273.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>42291</v>
       </c>
@@ -3198,30 +3211,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B21"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.08984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1796875" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.90625" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.61328125" customWidth="1"/>
+    <col min="2" max="2" width="24.4609375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.3828125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.53515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.61328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.3828125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.4609375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.07421875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.15234375" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.921875" style="17" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.08984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.07421875" style="17" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="34" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.1796875" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.15234375" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3268,7 +3281,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>127</v>
       </c>
@@ -3315,7 +3328,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>133</v>
       </c>
@@ -3362,7 +3375,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>125</v>
       </c>
@@ -3409,7 +3422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>126</v>
       </c>
@@ -3456,7 +3469,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>141</v>
       </c>
@@ -3503,7 +3516,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>142</v>
       </c>
@@ -3550,7 +3563,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>144</v>
       </c>
@@ -3597,7 +3610,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>149</v>
       </c>
@@ -3644,36 +3657,36 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="21" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" ht="27" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>231</v>
       </c>
@@ -3689,21 +3702,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:O1"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="36.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.4609375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.4609375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.07421875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3750,9 +3763,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>121</v>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>263</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>238</v>
@@ -3797,7 +3810,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -3844,7 +3857,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>138</v>
       </c>
@@ -3891,7 +3904,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>117</v>
       </c>
@@ -3938,7 +3951,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>146</v>
       </c>
@@ -3985,7 +3998,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>147</v>
       </c>
@@ -4032,7 +4045,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>119</v>
       </c>
@@ -4079,7 +4092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>120</v>
       </c>
@@ -4126,38 +4139,38 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B16" s="21" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="37.799999999999997" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B20" s="21" t="s">
         <v>253</v>
       </c>
@@ -4173,21 +4186,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:O1"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.53515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.3828125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.61328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4234,7 +4247,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>113</v>
       </c>
@@ -4254,7 +4267,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>114</v>
       </c>
@@ -4274,7 +4287,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>135</v>
       </c>
@@ -4294,7 +4307,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>150</v>
       </c>
@@ -4314,7 +4327,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>140</v>
       </c>
@@ -4334,9 +4347,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>76</v>
@@ -4354,7 +4367,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>136</v>
       </c>
@@ -4401,7 +4414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>129</v>
       </c>
@@ -4451,6 +4464,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4458,22 +4472,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.23046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.3828125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.15234375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.61328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.61328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4520,7 +4534,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -4531,7 +4545,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -4542,7 +4556,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -4553,7 +4567,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>153</v>
       </c>
@@ -4564,7 +4578,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>134</v>
       </c>
@@ -4575,7 +4589,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -4586,7 +4600,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>122</v>
       </c>
@@ -4597,7 +4611,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>151</v>
       </c>
@@ -4618,17 +4632,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.4609375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>111</v>
       </c>
@@ -4639,7 +4653,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -4650,7 +4664,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -4661,7 +4675,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>114</v>
       </c>
@@ -4672,7 +4686,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -4683,7 +4697,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -4694,7 +4708,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>117</v>
       </c>
@@ -4705,7 +4719,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>118</v>
       </c>
@@ -4716,7 +4730,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>119</v>
       </c>
@@ -4727,7 +4741,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>120</v>
       </c>
@@ -4738,7 +4752,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>121</v>
       </c>
@@ -4749,7 +4763,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>122</v>
       </c>
@@ -4760,7 +4774,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>123</v>
       </c>
@@ -4771,7 +4785,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>124</v>
       </c>
@@ -4782,7 +4796,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>125</v>
       </c>
@@ -4793,7 +4807,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>126</v>
       </c>
@@ -4804,7 +4818,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>127</v>
       </c>
@@ -4815,7 +4829,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>128</v>
       </c>
@@ -4826,7 +4840,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>129</v>
       </c>
@@ -4837,7 +4851,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>130</v>
       </c>
@@ -4848,7 +4862,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>131</v>
       </c>
@@ -4859,7 +4873,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>132</v>
       </c>
@@ -4870,7 +4884,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>133</v>
       </c>
@@ -4881,7 +4895,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>134</v>
       </c>
@@ -4892,7 +4906,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>135</v>
       </c>
@@ -4903,7 +4917,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>136</v>
       </c>
@@ -4914,7 +4928,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>137</v>
       </c>
@@ -4925,7 +4939,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>138</v>
       </c>
@@ -4936,7 +4950,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>139</v>
       </c>
@@ -4947,7 +4961,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>140</v>
       </c>
@@ -4958,7 +4972,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>141</v>
       </c>
@@ -4969,7 +4983,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>142</v>
       </c>
@@ -4980,7 +4994,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>143</v>
       </c>
@@ -4991,7 +5005,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>144</v>
       </c>
@@ -5002,7 +5016,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>145</v>
       </c>
@@ -5013,7 +5027,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>146</v>
       </c>
@@ -5024,7 +5038,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>147</v>
       </c>
@@ -5035,7 +5049,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>148</v>
       </c>
@@ -5046,7 +5060,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>149</v>
       </c>
@@ -5057,7 +5071,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>150</v>
       </c>
@@ -5068,7 +5082,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>151</v>
       </c>
@@ -5079,7 +5093,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>152</v>
       </c>
@@ -5090,7 +5104,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>153</v>
       </c>
@@ -5102,6 +5116,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>

--- a/sprint_planning/TeamDMVWReport.xlsx
+++ b/sprint_planning/TeamDMVWReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\54783\Desktop\GEDCOM\GEDCOM_Project\sprint_planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mruna\Desktop\GEDCOM_Project\sprint_planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF035B4-8A07-472A-BD2C-8CE19EB2B824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AA2C51-8DCF-4BAD-A378-55825B037FA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown README" sheetId="13" r:id="rId1"/>
@@ -31,7 +31,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="278">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -869,6 +871,45 @@
   <si>
     <t>US10</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>us02_birth_before_marriage</t>
+  </si>
+  <si>
+    <t>us03_birth_before_death</t>
+  </si>
+  <si>
+    <t>us24_unique_families_by_spouse</t>
+  </si>
+  <si>
+    <t>us39_list_upcoming_anniversaries</t>
+  </si>
+  <si>
+    <t>us29_list_deceased</t>
+  </si>
+  <si>
+    <t>test_us02_birth_before_marriage</t>
+  </si>
+  <si>
+    <t>test_us03_birth_before_death</t>
+  </si>
+  <si>
+    <t>test_us24_unique_families_by_spouse</t>
+  </si>
+  <si>
+    <t>test_us39_list_upcoming_anniversaries</t>
+  </si>
+  <si>
+    <t>test_us29_list_deceased</t>
+  </si>
+  <si>
+    <t>us10_marry_after_14</t>
+  </si>
+  <si>
+    <t>test_us10_marry_after_14</t>
+  </si>
+  <si>
+    <t>Follow Version Control Workflow mentioned in Readme</t>
   </si>
 </sst>
 </file>
@@ -876,10 +917,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="m/d"/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="m/d"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1028,20 +1069,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1049,7 +1090,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1065,75 +1106,75 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="66">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="65" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1151,7 +1192,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1288,7 +1329,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1312,15 +1353,18 @@
             <c:strRef>
               <c:f>Burndown!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>09/17/2019</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10/1</c:v>
+                  <c:v>10-1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10/15</c:v>
+                  <c:v>10-15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10-29</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1339,6 +1383,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2233,47 +2280,47 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6"/>
   <cols>
-    <col min="1" max="1" width="10.84375" style="7"/>
-    <col min="2" max="2" width="9.4609375" customWidth="1"/>
-    <col min="3" max="3" width="15.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3828125" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="12.4609375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" style="7"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="4" customFormat="1">
       <c r="A14" s="4" t="s">
         <v>159</v>
       </c>
@@ -2296,7 +2343,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>160</v>
       </c>
@@ -2312,7 +2359,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>161</v>
       </c>
@@ -2337,7 +2384,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="7" t="s">
         <v>162</v>
       </c>
@@ -2362,7 +2409,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="7" t="s">
         <v>163</v>
       </c>
@@ -2387,7 +2434,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="7" t="s">
         <v>164</v>
       </c>
@@ -2428,16 +2475,16 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6"/>
   <cols>
-    <col min="1" max="1" width="7.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.4609375" customWidth="1"/>
-    <col min="3" max="3" width="8.4609375" customWidth="1"/>
-    <col min="4" max="4" width="20.4609375" customWidth="1"/>
-    <col min="5" max="5" width="38.4609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" customWidth="1"/>
+    <col min="5" max="5" width="38.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2454,7 +2501,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>187</v>
       </c>
@@ -2471,7 +2518,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -2488,7 +2535,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>192</v>
       </c>
@@ -2505,7 +2552,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>201</v>
       </c>
@@ -2522,7 +2569,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
@@ -2551,20 +2598,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6"/>
   <cols>
-    <col min="1" max="1" width="6.07421875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.07421875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.4609375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.4609375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -2581,7 +2628,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2598,7 +2645,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2615,7 +2662,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2632,7 +2679,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2649,7 +2696,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2666,7 +2713,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2683,7 +2730,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2700,7 +2747,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2717,7 +2764,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2734,7 +2781,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2751,7 +2798,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2768,7 +2815,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2785,7 +2832,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2802,7 +2849,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2819,7 +2866,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2836,7 +2883,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2853,7 +2900,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2867,10 +2914,10 @@
         <v>192</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2884,10 +2931,10 @@
         <v>192</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2901,10 +2948,10 @@
         <v>182</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>3</v>
       </c>
@@ -2918,10 +2965,10 @@
         <v>182</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2935,10 +2982,10 @@
         <v>203</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2952,10 +2999,10 @@
         <v>203</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2972,7 +3019,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2989,7 +3036,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>4</v>
       </c>
@@ -3002,8 +3049,11 @@
       <c r="D26" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E26" s="22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>4</v>
       </c>
@@ -3016,8 +3066,11 @@
       <c r="D27" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E27" s="22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>4</v>
       </c>
@@ -3030,8 +3083,11 @@
       <c r="D28" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E28" s="22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>4</v>
       </c>
@@ -3044,8 +3100,11 @@
       <c r="D29" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E29" s="22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>4</v>
       </c>
@@ -3058,8 +3117,11 @@
       <c r="D30" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E30" s="22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>4</v>
       </c>
@@ -3072,8 +3134,11 @@
       <c r="D31" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E31" s="22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>4</v>
       </c>
@@ -3086,8 +3151,11 @@
       <c r="D32" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" s="22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>4</v>
       </c>
@@ -3099,6 +3167,9 @@
       </c>
       <c r="D33" t="s">
         <v>187</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -3110,23 +3181,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6"/>
   <cols>
-    <col min="1" max="1" width="10.84375" style="2"/>
-    <col min="2" max="2" width="16.61328125" customWidth="1"/>
-    <col min="3" max="3" width="12.4609375" customWidth="1"/>
-    <col min="4" max="4" width="7.15234375" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="12.4609375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" style="2"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3146,7 +3217,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="23" t="s">
         <v>207</v>
       </c>
@@ -3157,7 +3228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>42277</v>
       </c>
@@ -3178,7 +3249,7 @@
         <v>273.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>42291</v>
       </c>
@@ -3197,6 +3268,27 @@
       <c r="F4" s="9">
         <f>(D4-D3)/E4*60</f>
         <v>192.66666666666669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>42305</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>1068</v>
+      </c>
+      <c r="E5">
+        <v>120</v>
+      </c>
+      <c r="F5" s="9">
+        <f>(D5-D4)/E5*60</f>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3211,30 +3303,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6"/>
   <cols>
-    <col min="1" max="1" width="7.61328125" customWidth="1"/>
-    <col min="2" max="2" width="24.4609375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.3828125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.53515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.61328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.3828125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.69140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.4609375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.07421875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.15234375" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.921875" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6328125" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1796875" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.90625" style="17" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.07421875" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.08984375" style="17" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="34" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.15234375" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1796875" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3281,7 +3373,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="20" t="s">
         <v>127</v>
       </c>
@@ -3328,7 +3420,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" s="22" t="s">
         <v>133</v>
       </c>
@@ -3375,7 +3467,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" s="22" t="s">
         <v>125</v>
       </c>
@@ -3422,7 +3514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="22" t="s">
         <v>126</v>
       </c>
@@ -3469,7 +3561,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" s="22" t="s">
         <v>141</v>
       </c>
@@ -3516,7 +3608,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="22" t="s">
         <v>142</v>
       </c>
@@ -3563,7 +3655,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="22" t="s">
         <v>144</v>
       </c>
@@ -3610,7 +3702,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="22" t="s">
         <v>149</v>
       </c>
@@ -3657,36 +3749,36 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="B15" s="5"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2">
       <c r="B17" s="21" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2">
       <c r="B18" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" ht="25.2">
       <c r="B21" s="1" t="s">
         <v>231</v>
       </c>
@@ -3702,21 +3794,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A4" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6"/>
   <cols>
-    <col min="2" max="2" width="26.4609375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.4609375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.07421875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.84375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="36.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3763,7 +3855,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="22" t="s">
         <v>263</v>
       </c>
@@ -3810,7 +3902,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -3857,7 +3949,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>138</v>
       </c>
@@ -3904,7 +3996,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>117</v>
       </c>
@@ -3951,7 +4043,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>146</v>
       </c>
@@ -3998,7 +4090,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>147</v>
       </c>
@@ -4045,7 +4137,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>119</v>
       </c>
@@ -4092,7 +4184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>120</v>
       </c>
@@ -4139,38 +4231,38 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="B13" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="B15" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="B16" s="21" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2">
       <c r="B17" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2">
       <c r="B19" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" ht="37.799999999999997">
       <c r="B20" s="21" t="s">
         <v>253</v>
       </c>
@@ -4184,23 +4276,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6"/>
   <cols>
-    <col min="2" max="2" width="24.53515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.3828125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.61328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.84375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.69140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4247,7 +4339,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="22" t="s">
         <v>113</v>
       </c>
@@ -4258,7 +4350,7 @@
         <v>192</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E2">
         <v>30</v>
@@ -4266,8 +4358,35 @@
       <c r="F2">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>22</v>
+      </c>
+      <c r="H2">
+        <v>90</v>
+      </c>
+      <c r="I2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J2" t="s">
+        <v>234</v>
+      </c>
+      <c r="K2" t="s">
+        <v>265</v>
+      </c>
+      <c r="L2">
+        <v>698</v>
+      </c>
+      <c r="M2" t="s">
+        <v>255</v>
+      </c>
+      <c r="N2" t="s">
+        <v>270</v>
+      </c>
+      <c r="O2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="22" t="s">
         <v>114</v>
       </c>
@@ -4278,7 +4397,7 @@
         <v>192</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E3">
         <v>40</v>
@@ -4286,8 +4405,35 @@
       <c r="F3">
         <v>120</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>60</v>
+      </c>
+      <c r="I3" t="s">
+        <v>233</v>
+      </c>
+      <c r="J3" t="s">
+        <v>234</v>
+      </c>
+      <c r="K3" t="s">
+        <v>266</v>
+      </c>
+      <c r="L3">
+        <v>736</v>
+      </c>
+      <c r="M3" t="s">
+        <v>255</v>
+      </c>
+      <c r="N3" t="s">
+        <v>271</v>
+      </c>
+      <c r="O3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="22" t="s">
         <v>135</v>
       </c>
@@ -4298,7 +4444,7 @@
         <v>182</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -4306,8 +4452,35 @@
       <c r="F4">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <v>60</v>
+      </c>
+      <c r="I4" t="s">
+        <v>233</v>
+      </c>
+      <c r="J4" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L4">
+        <v>619</v>
+      </c>
+      <c r="M4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N4" t="s">
+        <v>272</v>
+      </c>
+      <c r="O4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="22" t="s">
         <v>150</v>
       </c>
@@ -4318,7 +4491,7 @@
         <v>182</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -4326,8 +4499,35 @@
       <c r="F5">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>37</v>
+      </c>
+      <c r="H5">
+        <v>90</v>
+      </c>
+      <c r="I5" t="s">
+        <v>233</v>
+      </c>
+      <c r="J5" t="s">
+        <v>234</v>
+      </c>
+      <c r="K5" t="s">
+        <v>268</v>
+      </c>
+      <c r="L5">
+        <v>658</v>
+      </c>
+      <c r="M5" t="s">
+        <v>255</v>
+      </c>
+      <c r="N5" t="s">
+        <v>273</v>
+      </c>
+      <c r="O5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="22" t="s">
         <v>140</v>
       </c>
@@ -4338,7 +4538,7 @@
         <v>203</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -4346,8 +4546,35 @@
       <c r="F6">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>60</v>
+      </c>
+      <c r="I6" t="s">
+        <v>233</v>
+      </c>
+      <c r="J6" t="s">
+        <v>234</v>
+      </c>
+      <c r="K6" t="s">
+        <v>269</v>
+      </c>
+      <c r="L6">
+        <v>753</v>
+      </c>
+      <c r="M6" t="s">
+        <v>255</v>
+      </c>
+      <c r="N6" t="s">
+        <v>274</v>
+      </c>
+      <c r="O6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="22" t="s">
         <v>264</v>
       </c>
@@ -4358,7 +4585,7 @@
         <v>203</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -4366,8 +4593,35 @@
       <c r="F7">
         <v>90</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>90</v>
+      </c>
+      <c r="I7" t="s">
+        <v>233</v>
+      </c>
+      <c r="J7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L7">
+        <v>775</v>
+      </c>
+      <c r="M7" t="s">
+        <v>255</v>
+      </c>
+      <c r="N7" t="s">
+        <v>276</v>
+      </c>
+      <c r="O7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="22" t="s">
         <v>136</v>
       </c>
@@ -4387,7 +4641,7 @@
         <v>60</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H8">
         <v>60</v>
@@ -4402,7 +4656,7 @@
         <v>254</v>
       </c>
       <c r="L8">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M8" t="s">
         <v>255</v>
@@ -4411,10 +4665,10 @@
         <v>256</v>
       </c>
       <c r="O8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="22" t="s">
         <v>129</v>
       </c>
@@ -4449,7 +4703,7 @@
         <v>257</v>
       </c>
       <c r="L9">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M9" t="s">
         <v>255</v>
@@ -4458,7 +4712,43 @@
         <v>258</v>
       </c>
       <c r="O9">
-        <v>16</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="B13" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="37.799999999999997">
+      <c r="B16" s="21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="37.799999999999997">
+      <c r="B20" s="21" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -4473,21 +4763,21 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6"/>
   <cols>
-    <col min="2" max="2" width="25.23046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.3828125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.84375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.15234375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.61328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.61328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4534,7 +4824,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -4544,8 +4834,17 @@
       <c r="C2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -4555,8 +4854,17 @@
       <c r="C3" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -4566,8 +4874,17 @@
       <c r="C4" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>153</v>
       </c>
@@ -4577,8 +4894,17 @@
       <c r="C5" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>134</v>
       </c>
@@ -4588,8 +4914,17 @@
       <c r="C6" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6">
+        <v>40</v>
+      </c>
+      <c r="F6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -4599,8 +4934,17 @@
       <c r="C7" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>122</v>
       </c>
@@ -4610,8 +4954,17 @@
       <c r="C8" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>151</v>
       </c>
@@ -4620,6 +4973,15 @@
       </c>
       <c r="C9" t="s">
         <v>187</v>
+      </c>
+      <c r="D9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -4636,13 +4998,13 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6"/>
   <cols>
-    <col min="2" max="2" width="28.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.4609375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>111</v>
       </c>
@@ -4653,7 +5015,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="30">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -4664,7 +5026,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -4675,7 +5037,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15">
       <c r="A4" t="s">
         <v>114</v>
       </c>
@@ -4686,7 +5048,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="30">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -4697,7 +5059,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -4708,7 +5070,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15">
       <c r="A7" t="s">
         <v>117</v>
       </c>
@@ -4719,7 +5081,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="45">
       <c r="A8" t="s">
         <v>118</v>
       </c>
@@ -4730,7 +5092,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="30">
       <c r="A9" t="s">
         <v>119</v>
       </c>
@@ -4741,7 +5103,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="30">
       <c r="A10" t="s">
         <v>120</v>
       </c>
@@ -4752,7 +5114,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="30">
       <c r="A11" t="s">
         <v>121</v>
       </c>
@@ -4763,7 +5125,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="30">
       <c r="A12" t="s">
         <v>122</v>
       </c>
@@ -4774,7 +5136,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="45">
       <c r="A13" t="s">
         <v>123</v>
       </c>
@@ -4785,7 +5147,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="45">
       <c r="A14" t="s">
         <v>124</v>
       </c>
@@ -4796,7 +5158,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15">
       <c r="A15" t="s">
         <v>125</v>
       </c>
@@ -4807,7 +5169,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15">
       <c r="A16" t="s">
         <v>126</v>
       </c>
@@ -4818,7 +5180,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="30">
       <c r="A17" t="s">
         <v>127</v>
       </c>
@@ -4829,7 +5191,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15">
       <c r="A18" t="s">
         <v>128</v>
       </c>
@@ -4840,7 +5202,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15">
       <c r="A19" t="s">
         <v>129</v>
       </c>
@@ -4851,7 +5213,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15">
       <c r="A20" t="s">
         <v>130</v>
       </c>
@@ -4862,7 +5224,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15">
       <c r="A21" t="s">
         <v>131</v>
       </c>
@@ -4873,7 +5235,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="30">
       <c r="A22" t="s">
         <v>132</v>
       </c>
@@ -4884,7 +5246,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="30">
       <c r="A23" t="s">
         <v>133</v>
       </c>
@@ -4895,7 +5257,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="30">
       <c r="A24" t="s">
         <v>134</v>
       </c>
@@ -4906,7 +5268,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="30">
       <c r="A25" t="s">
         <v>135</v>
       </c>
@@ -4917,7 +5279,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="30">
       <c r="A26" t="s">
         <v>136</v>
       </c>
@@ -4928,7 +5290,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="105">
       <c r="A27" t="s">
         <v>137</v>
       </c>
@@ -4939,7 +5301,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="15">
       <c r="A28" t="s">
         <v>138</v>
       </c>
@@ -4950,7 +5312,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="30">
       <c r="A29" t="s">
         <v>139</v>
       </c>
@@ -4961,7 +5323,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="15">
       <c r="A30" t="s">
         <v>140</v>
       </c>
@@ -4972,7 +5334,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="15">
       <c r="A31" t="s">
         <v>141</v>
       </c>
@@ -4983,7 +5345,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="30">
       <c r="A32" t="s">
         <v>142</v>
       </c>
@@ -4994,7 +5356,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="15">
       <c r="A33" t="s">
         <v>143</v>
       </c>
@@ -5005,7 +5367,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="30">
       <c r="A34" t="s">
         <v>144</v>
       </c>
@@ -5016,7 +5378,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="30">
       <c r="A35" t="s">
         <v>145</v>
       </c>
@@ -5027,7 +5389,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="30">
       <c r="A36" t="s">
         <v>146</v>
       </c>
@@ -5038,7 +5400,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="15">
       <c r="A37" t="s">
         <v>147</v>
       </c>
@@ -5049,7 +5411,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="30">
       <c r="A38" t="s">
         <v>148</v>
       </c>
@@ -5060,7 +5422,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="30">
       <c r="A39" t="s">
         <v>149</v>
       </c>
@@ -5071,7 +5433,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="30">
       <c r="A40" t="s">
         <v>150</v>
       </c>
@@ -5082,7 +5444,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="30">
       <c r="A41" t="s">
         <v>151</v>
       </c>
@@ -5093,7 +5455,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="30">
       <c r="A42" t="s">
         <v>152</v>
       </c>
@@ -5104,7 +5466,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="30">
       <c r="A43" t="s">
         <v>153</v>
       </c>

--- a/sprint_planning/TeamDMVWReport.xlsx
+++ b/sprint_planning/TeamDMVWReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mruna\Desktop\GEDCOM_Project\sprint_planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AA2C51-8DCF-4BAD-A378-55825B037FA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA101704-0E83-4A27-B2A5-4E5F174A8214}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="252" yWindow="1176" windowWidth="21600" windowHeight="11436" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown README" sheetId="13" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="283">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -910,6 +910,21 @@
   </si>
   <si>
     <t>Follow Version Control Workflow mentioned in Readme</t>
+  </si>
+  <si>
+    <t>us11_no_bigamy</t>
+  </si>
+  <si>
+    <t>sprint4_tests.py</t>
+  </si>
+  <si>
+    <t>test_us11_no_bigamy</t>
+  </si>
+  <si>
+    <t>us40_include_input_line_numbers</t>
+  </si>
+  <si>
+    <t>test_us40_include_input_line_numbers</t>
   </si>
 </sst>
 </file>
@@ -2598,8 +2613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6"/>
@@ -3152,7 +3167,7 @@
         <v>187</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3169,7 +3184,7 @@
         <v>187</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -3794,7 +3809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -4278,7 +4293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -4763,17 +4778,17 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6"/>
   <cols>
     <col min="2" max="2" width="25.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.453125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.54296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4926,7 +4941,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
         <v>205</v>
@@ -4955,13 +4970,34 @@
         <v>187</v>
       </c>
       <c r="D8" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E8">
         <v>40</v>
       </c>
       <c r="F8">
         <v>90</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8">
+        <v>60</v>
+      </c>
+      <c r="I8" t="s">
+        <v>233</v>
+      </c>
+      <c r="J8" t="s">
+        <v>234</v>
+      </c>
+      <c r="K8" t="s">
+        <v>278</v>
+      </c>
+      <c r="M8" t="s">
+        <v>279</v>
+      </c>
+      <c r="N8" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -4975,13 +5011,34 @@
         <v>187</v>
       </c>
       <c r="D9" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E9">
         <v>20</v>
       </c>
       <c r="F9">
         <v>30</v>
+      </c>
+      <c r="G9">
+        <v>36</v>
+      </c>
+      <c r="H9">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>233</v>
+      </c>
+      <c r="J9" t="s">
+        <v>234</v>
+      </c>
+      <c r="K9" t="s">
+        <v>281</v>
+      </c>
+      <c r="M9" t="s">
+        <v>279</v>
+      </c>
+      <c r="N9" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -4994,7 +5051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>

--- a/sprint_planning/TeamDMVWReport.xlsx
+++ b/sprint_planning/TeamDMVWReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mruna\Desktop\GEDCOM_Project\sprint_planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA101704-0E83-4A27-B2A5-4E5F174A8214}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEE241E-4558-4946-8998-7D5D220F3CF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="252" yWindow="1176" windowWidth="21600" windowHeight="11436" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown README" sheetId="13" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="294">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -694,9 +694,6 @@
     <t>Less than 150 years old</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>09/17/2019</t>
   </si>
   <si>
@@ -925,6 +922,42 @@
   </si>
   <si>
     <t>test_us40_include_input_line_numbers</t>
+  </si>
+  <si>
+    <t>us04_marriage_after_divorce</t>
+  </si>
+  <si>
+    <t>us05_marriage_before_death</t>
+  </si>
+  <si>
+    <t>us19_first_cousins_should_not_marry</t>
+  </si>
+  <si>
+    <t>us42_reject_illegitimate_dates</t>
+  </si>
+  <si>
+    <t>us23_unique_name_and_birth_date</t>
+  </si>
+  <si>
+    <t>test_us04_marriage_after_divorce</t>
+  </si>
+  <si>
+    <t>test_us05_marriage_before_death</t>
+  </si>
+  <si>
+    <t>test_us19_first_cousins_should_not_marry</t>
+  </si>
+  <si>
+    <t>test_us42_reject_illegitimate_dates</t>
+  </si>
+  <si>
+    <t>us07_less_than_150_years_old</t>
+  </si>
+  <si>
+    <t>test_us07_less_than_150_years_old</t>
+  </si>
+  <si>
+    <t>test_us23_unique_name_and_birth_date</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1401,7 @@
             <c:strRef>
               <c:f>Burndown!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>09/17/2019</c:v>
                 </c:pt>
@@ -1380,6 +1413,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10-29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11-12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1401,6 +1437,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2613,8 +2652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A16" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6"/>
@@ -2657,7 +2696,7 @@
         <v>192</v>
       </c>
       <c r="E2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2674,7 +2713,7 @@
         <v>192</v>
       </c>
       <c r="E3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2691,7 +2730,7 @@
         <v>182</v>
       </c>
       <c r="E4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2708,7 +2747,7 @@
         <v>182</v>
       </c>
       <c r="E5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2725,7 +2764,7 @@
         <v>203</v>
       </c>
       <c r="E6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2742,7 +2781,7 @@
         <v>203</v>
       </c>
       <c r="E7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2759,7 +2798,7 @@
         <v>187</v>
       </c>
       <c r="E8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2776,7 +2815,7 @@
         <v>187</v>
       </c>
       <c r="E9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2793,7 +2832,7 @@
         <v>192</v>
       </c>
       <c r="E10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2810,7 +2849,7 @@
         <v>192</v>
       </c>
       <c r="E11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2827,7 +2866,7 @@
         <v>182</v>
       </c>
       <c r="E12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2844,7 +2883,7 @@
         <v>182</v>
       </c>
       <c r="E13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2861,7 +2900,7 @@
         <v>203</v>
       </c>
       <c r="E14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2878,7 +2917,7 @@
         <v>203</v>
       </c>
       <c r="E15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2895,7 +2934,7 @@
         <v>187</v>
       </c>
       <c r="E16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2912,7 +2951,7 @@
         <v>187</v>
       </c>
       <c r="E17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2929,7 +2968,7 @@
         <v>192</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2946,7 +2985,7 @@
         <v>192</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2963,7 +3002,7 @@
         <v>182</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2980,7 +3019,7 @@
         <v>182</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2997,7 +3036,7 @@
         <v>203</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3014,7 +3053,7 @@
         <v>203</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3031,7 +3070,7 @@
         <v>187</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3048,7 +3087,7 @@
         <v>187</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3065,7 +3104,7 @@
         <v>192</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3082,7 +3121,7 @@
         <v>192</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3099,7 +3138,7 @@
         <v>182</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3116,7 +3155,7 @@
         <v>182</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3133,7 +3172,7 @@
         <v>203</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3150,7 +3189,7 @@
         <v>203</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3167,7 +3206,7 @@
         <v>187</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3184,7 +3223,7 @@
         <v>187</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3196,10 +3235,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6"/>
@@ -3234,7 +3273,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B2">
         <v>32</v>
@@ -3304,6 +3343,27 @@
       <c r="F5" s="9">
         <f>(D5-D4)/E5*60</f>
         <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>42319</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>1335</v>
+      </c>
+      <c r="E6">
+        <v>120</v>
+      </c>
+      <c r="F6" s="9">
+        <f>(D6-D5)/E6*60</f>
+        <v>133.5</v>
       </c>
     </row>
   </sheetData>
@@ -3399,7 +3459,7 @@
         <v>192</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -3414,22 +3474,22 @@
         <v>60</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L2" s="18">
         <v>375</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O2" s="18">
         <v>46</v>
@@ -3446,7 +3506,7 @@
         <v>192</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -3461,22 +3521,22 @@
         <v>60</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L3" s="17">
         <v>350</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O3" s="17">
         <v>37</v>
@@ -3493,7 +3553,7 @@
         <v>182</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -3508,22 +3568,22 @@
         <v>125</v>
       </c>
       <c r="I4" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="K4" s="17" t="s">
         <v>214</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>215</v>
       </c>
       <c r="L4" s="17">
         <v>218</v>
       </c>
       <c r="M4" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="N4" s="17" t="s">
         <v>216</v>
-      </c>
-      <c r="N4" s="17" t="s">
-        <v>217</v>
       </c>
       <c r="O4" s="17">
         <v>9</v>
@@ -3540,7 +3600,7 @@
         <v>182</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E5">
         <v>70</v>
@@ -3555,22 +3615,22 @@
         <v>60</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L5" s="17">
         <v>239</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O5" s="17">
         <v>17</v>
@@ -3587,7 +3647,7 @@
         <v>203</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E6">
         <v>70</v>
@@ -3602,22 +3662,22 @@
         <v>60</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L6" s="17">
         <v>308</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O6" s="17">
         <v>25</v>
@@ -3634,7 +3694,7 @@
         <v>203</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E7">
         <v>70</v>
@@ -3649,22 +3709,22 @@
         <v>30</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L7" s="17">
         <v>329</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O7" s="17">
         <v>31</v>
@@ -3681,7 +3741,7 @@
         <v>187</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E8">
         <v>45</v>
@@ -3696,22 +3756,22 @@
         <v>30</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J8" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="K8" s="18" t="s">
         <v>210</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>211</v>
       </c>
       <c r="L8" s="18">
         <v>250</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N8" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O8" s="18">
         <v>52</v>
@@ -3728,7 +3788,7 @@
         <v>187</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -3743,22 +3803,22 @@
         <v>30</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L9" s="17">
         <v>284</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O9" s="17">
         <v>60</v>
@@ -3780,12 +3840,12 @@
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -3795,7 +3855,7 @@
     </row>
     <row r="21" spans="2:2" ht="25.2">
       <c r="B21" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3867,21 +3927,21 @@
         <v>180</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C2" t="s">
         <v>203</v>
       </c>
       <c r="D2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E2">
         <v>30</v>
@@ -3896,22 +3956,22 @@
         <v>40</v>
       </c>
       <c r="I2" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="J2" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="K2" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>235</v>
       </c>
       <c r="L2" s="22">
         <v>495</v>
       </c>
       <c r="M2" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="N2" s="22" t="s">
         <v>236</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>237</v>
       </c>
       <c r="O2">
         <v>47</v>
@@ -3922,13 +3982,13 @@
         <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C3" t="s">
         <v>203</v>
       </c>
       <c r="D3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E3">
         <v>30</v>
@@ -3943,22 +4003,22 @@
         <v>90</v>
       </c>
       <c r="I3" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="J3" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="J3" s="22" t="s">
-        <v>234</v>
-      </c>
       <c r="K3" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L3">
         <v>515</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O3">
         <v>54</v>
@@ -3975,7 +4035,7 @@
         <v>192</v>
       </c>
       <c r="D4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E4">
         <v>40</v>
@@ -3990,22 +4050,22 @@
         <v>60</v>
       </c>
       <c r="I4" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="J4" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="J4" s="22" t="s">
-        <v>234</v>
-      </c>
       <c r="K4" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L4">
         <v>535</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N4" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O4">
         <v>70</v>
@@ -4022,7 +4082,7 @@
         <v>192</v>
       </c>
       <c r="D5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E5">
         <v>40</v>
@@ -4037,22 +4097,22 @@
         <v>60</v>
       </c>
       <c r="I5" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="J5" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="J5" s="22" t="s">
-        <v>234</v>
-      </c>
       <c r="K5" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L5">
         <v>552</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O5">
         <v>61</v>
@@ -4069,7 +4129,7 @@
         <v>182</v>
       </c>
       <c r="D6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E6">
         <v>40</v>
@@ -4084,22 +4144,22 @@
         <v>40</v>
       </c>
       <c r="I6" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="J6" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="J6" s="22" t="s">
-        <v>234</v>
-      </c>
       <c r="K6" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L6">
         <v>452</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N6" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O6">
         <v>27</v>
@@ -4116,7 +4176,7 @@
         <v>182</v>
       </c>
       <c r="D7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E7">
         <v>40</v>
@@ -4131,22 +4191,22 @@
         <v>40</v>
       </c>
       <c r="I7" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="J7" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="J7" s="22" t="s">
-        <v>234</v>
-      </c>
       <c r="K7" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L7">
         <v>473</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O7">
         <v>37</v>
@@ -4163,7 +4223,7 @@
         <v>187</v>
       </c>
       <c r="D8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E8">
         <v>40</v>
@@ -4178,22 +4238,22 @@
         <v>30</v>
       </c>
       <c r="I8" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="J8" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="J8" s="22" t="s">
-        <v>234</v>
-      </c>
       <c r="K8" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L8">
         <v>397</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O8">
         <v>7</v>
@@ -4210,7 +4270,7 @@
         <v>187</v>
       </c>
       <c r="D9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E9">
         <v>40</v>
@@ -4225,22 +4285,22 @@
         <v>30</v>
       </c>
       <c r="I9" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="J9" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="J9" s="22" t="s">
-        <v>234</v>
-      </c>
       <c r="K9" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L9">
         <v>421</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O9">
         <v>17</v>
@@ -4261,12 +4321,12 @@
     </row>
     <row r="16" spans="1:15">
       <c r="B16" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="2:2">
@@ -4279,7 +4339,7 @@
     </row>
     <row r="20" spans="2:2" ht="37.799999999999997">
       <c r="B20" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -4351,7 +4411,7 @@
         <v>180</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -4365,7 +4425,7 @@
         <v>192</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E2">
         <v>30</v>
@@ -4380,22 +4440,22 @@
         <v>90</v>
       </c>
       <c r="I2" t="s">
+        <v>232</v>
+      </c>
+      <c r="J2" t="s">
         <v>233</v>
       </c>
-      <c r="J2" t="s">
-        <v>234</v>
-      </c>
       <c r="K2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L2">
         <v>698</v>
       </c>
       <c r="M2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O2">
         <v>65</v>
@@ -4412,7 +4472,7 @@
         <v>192</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E3">
         <v>40</v>
@@ -4427,22 +4487,22 @@
         <v>60</v>
       </c>
       <c r="I3" t="s">
+        <v>232</v>
+      </c>
+      <c r="J3" t="s">
         <v>233</v>
       </c>
-      <c r="J3" t="s">
-        <v>234</v>
-      </c>
       <c r="K3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L3">
         <v>736</v>
       </c>
       <c r="M3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O3">
         <v>74</v>
@@ -4459,7 +4519,7 @@
         <v>182</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -4474,22 +4534,22 @@
         <v>60</v>
       </c>
       <c r="I4" t="s">
+        <v>232</v>
+      </c>
+      <c r="J4" t="s">
         <v>233</v>
       </c>
-      <c r="J4" t="s">
-        <v>234</v>
-      </c>
       <c r="K4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L4">
         <v>619</v>
       </c>
       <c r="M4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O4">
         <v>26</v>
@@ -4506,7 +4566,7 @@
         <v>182</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -4521,22 +4581,22 @@
         <v>90</v>
       </c>
       <c r="I5" t="s">
+        <v>232</v>
+      </c>
+      <c r="J5" t="s">
         <v>233</v>
       </c>
-      <c r="J5" t="s">
-        <v>234</v>
-      </c>
       <c r="K5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L5">
         <v>658</v>
       </c>
       <c r="M5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O5">
         <v>34</v>
@@ -4553,7 +4613,7 @@
         <v>203</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -4568,22 +4628,22 @@
         <v>60</v>
       </c>
       <c r="I6" t="s">
+        <v>232</v>
+      </c>
+      <c r="J6" t="s">
         <v>233</v>
       </c>
-      <c r="J6" t="s">
-        <v>234</v>
-      </c>
       <c r="K6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L6">
         <v>753</v>
       </c>
       <c r="M6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O6">
         <v>46</v>
@@ -4591,7 +4651,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>76</v>
@@ -4600,7 +4660,7 @@
         <v>203</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -4615,22 +4675,22 @@
         <v>90</v>
       </c>
       <c r="I7" t="s">
+        <v>232</v>
+      </c>
+      <c r="J7" t="s">
         <v>233</v>
       </c>
-      <c r="J7" t="s">
-        <v>234</v>
-      </c>
       <c r="K7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L7">
         <v>775</v>
       </c>
       <c r="M7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O7">
         <v>55</v>
@@ -4647,7 +4707,7 @@
         <v>187</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E8">
         <v>40</v>
@@ -4662,22 +4722,22 @@
         <v>60</v>
       </c>
       <c r="I8" t="s">
+        <v>232</v>
+      </c>
+      <c r="J8" t="s">
         <v>233</v>
       </c>
-      <c r="J8" t="s">
-        <v>234</v>
-      </c>
       <c r="K8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L8">
         <v>586</v>
       </c>
       <c r="M8" t="s">
+        <v>254</v>
+      </c>
+      <c r="N8" t="s">
         <v>255</v>
-      </c>
-      <c r="N8" t="s">
-        <v>256</v>
       </c>
       <c r="O8">
         <v>8</v>
@@ -4694,7 +4754,7 @@
         <v>187</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E9">
         <v>30</v>
@@ -4709,22 +4769,22 @@
         <v>30</v>
       </c>
       <c r="I9" t="s">
+        <v>232</v>
+      </c>
+      <c r="J9" t="s">
         <v>233</v>
       </c>
-      <c r="J9" t="s">
-        <v>234</v>
-      </c>
       <c r="K9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L9">
         <v>605</v>
       </c>
       <c r="M9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O9">
         <v>17</v>
@@ -4745,12 +4805,12 @@
     </row>
     <row r="16" spans="1:15" ht="37.799999999999997">
       <c r="B16" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="2:2">
@@ -4763,7 +4823,7 @@
     </row>
     <row r="20" spans="2:2" ht="37.799999999999997">
       <c r="B20" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -4778,7 +4838,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6"/>
@@ -4836,7 +4896,7 @@
         <v>180</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -4844,19 +4904,46 @@
         <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C2" t="s">
         <v>192</v>
       </c>
       <c r="D2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E2">
         <v>30</v>
       </c>
       <c r="F2">
         <v>90</v>
+      </c>
+      <c r="G2">
+        <v>22</v>
+      </c>
+      <c r="H2">
+        <v>60</v>
+      </c>
+      <c r="I2" t="s">
+        <v>232</v>
+      </c>
+      <c r="J2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K2" t="s">
+        <v>282</v>
+      </c>
+      <c r="L2">
+        <v>796</v>
+      </c>
+      <c r="M2" t="s">
+        <v>278</v>
+      </c>
+      <c r="N2" t="s">
+        <v>287</v>
+      </c>
+      <c r="O2">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -4864,19 +4951,46 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C3" t="s">
         <v>192</v>
       </c>
       <c r="D3" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E3">
         <v>25</v>
       </c>
       <c r="F3">
         <v>60</v>
+      </c>
+      <c r="G3">
+        <v>22</v>
+      </c>
+      <c r="H3">
+        <v>60</v>
+      </c>
+      <c r="I3" t="s">
+        <v>232</v>
+      </c>
+      <c r="J3" t="s">
+        <v>233</v>
+      </c>
+      <c r="K3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L3">
+        <v>821</v>
+      </c>
+      <c r="M3" t="s">
+        <v>278</v>
+      </c>
+      <c r="N3" t="s">
+        <v>288</v>
+      </c>
+      <c r="O3">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4884,19 +4998,46 @@
         <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C4" t="s">
         <v>182</v>
       </c>
       <c r="D4" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E4">
         <v>40</v>
       </c>
       <c r="F4">
         <v>90</v>
+      </c>
+      <c r="G4">
+        <v>35</v>
+      </c>
+      <c r="H4">
+        <v>60</v>
+      </c>
+      <c r="I4" t="s">
+        <v>232</v>
+      </c>
+      <c r="J4" t="s">
+        <v>233</v>
+      </c>
+      <c r="K4" t="s">
+        <v>284</v>
+      </c>
+      <c r="L4">
+        <v>845</v>
+      </c>
+      <c r="M4" t="s">
+        <v>278</v>
+      </c>
+      <c r="N4" t="s">
+        <v>289</v>
+      </c>
+      <c r="O4">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -4904,19 +5045,46 @@
         <v>153</v>
       </c>
       <c r="B5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C5" t="s">
         <v>182</v>
       </c>
       <c r="D5" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E5">
         <v>30</v>
       </c>
       <c r="F5">
         <v>60</v>
+      </c>
+      <c r="G5">
+        <v>35</v>
+      </c>
+      <c r="H5">
+        <v>90</v>
+      </c>
+      <c r="I5" t="s">
+        <v>232</v>
+      </c>
+      <c r="J5" t="s">
+        <v>233</v>
+      </c>
+      <c r="K5" t="s">
+        <v>285</v>
+      </c>
+      <c r="L5">
+        <v>881</v>
+      </c>
+      <c r="M5" t="s">
+        <v>278</v>
+      </c>
+      <c r="N5" t="s">
+        <v>290</v>
+      </c>
+      <c r="O5">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -4930,13 +5098,40 @@
         <v>203</v>
       </c>
       <c r="D6" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E6">
         <v>40</v>
       </c>
       <c r="F6">
         <v>90</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>232</v>
+      </c>
+      <c r="J6" t="s">
+        <v>233</v>
+      </c>
+      <c r="K6" t="s">
+        <v>286</v>
+      </c>
+      <c r="L6">
+        <v>1000</v>
+      </c>
+      <c r="M6" t="s">
+        <v>278</v>
+      </c>
+      <c r="N6" t="s">
+        <v>293</v>
+      </c>
+      <c r="O6">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -4950,13 +5145,40 @@
         <v>203</v>
       </c>
       <c r="D7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E7">
         <v>30</v>
       </c>
       <c r="F7">
         <v>60</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>232</v>
+      </c>
+      <c r="J7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L7">
+        <v>916</v>
+      </c>
+      <c r="M7" t="s">
+        <v>278</v>
+      </c>
+      <c r="N7" t="s">
+        <v>292</v>
+      </c>
+      <c r="O7">
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -4970,7 +5192,7 @@
         <v>187</v>
       </c>
       <c r="D8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E8">
         <v>40</v>
@@ -4985,19 +5207,25 @@
         <v>60</v>
       </c>
       <c r="I8" t="s">
+        <v>232</v>
+      </c>
+      <c r="J8" t="s">
         <v>233</v>
       </c>
-      <c r="J8" t="s">
-        <v>234</v>
-      </c>
       <c r="K8" t="s">
+        <v>277</v>
+      </c>
+      <c r="L8">
+        <v>930</v>
+      </c>
+      <c r="M8" t="s">
         <v>278</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>279</v>
       </c>
-      <c r="N8" t="s">
-        <v>280</v>
+      <c r="O8">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -5011,7 +5239,7 @@
         <v>187</v>
       </c>
       <c r="D9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E9">
         <v>20</v>
@@ -5026,19 +5254,25 @@
         <v>30</v>
       </c>
       <c r="I9" t="s">
+        <v>232</v>
+      </c>
+      <c r="J9" t="s">
         <v>233</v>
       </c>
-      <c r="J9" t="s">
-        <v>234</v>
-      </c>
       <c r="K9" t="s">
+        <v>280</v>
+      </c>
+      <c r="L9">
+        <v>962</v>
+      </c>
+      <c r="M9" t="s">
+        <v>278</v>
+      </c>
+      <c r="N9" t="s">
         <v>281</v>
       </c>
-      <c r="M9" t="s">
-        <v>279</v>
-      </c>
-      <c r="N9" t="s">
-        <v>282</v>
+      <c r="O9">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
